--- a/2020/January/All Details/07.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/07.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\06.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\07.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5699C1B9-EFB7-4A7D-8ED1-7958D96BFFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086AB99-ED8C-4503-8327-4C1E713D67C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -157,7 +157,10 @@
     <t>06.01.2020</t>
   </si>
   <si>
-    <t>Date: 06.01.2020</t>
+    <t>07.01.2020</t>
+  </si>
+  <si>
+    <t>Date: 07.01.2020</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1995,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2179,7 +2182,7 @@
       <c r="C12" s="64">
         <v>200000</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="90">
         <v>450000</v>
       </c>
       <c r="E12" s="98">
@@ -2192,12 +2195,18 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="60"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="64">
+        <v>117000</v>
+      </c>
+      <c r="D13" s="90">
+        <v>120000</v>
+      </c>
       <c r="E13" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="2"/>
@@ -2210,7 +2219,7 @@
       <c r="D14" s="64"/>
       <c r="E14" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="2"/>
@@ -2223,7 +2232,7 @@
       <c r="D15" s="64"/>
       <c r="E15" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="2"/>
@@ -2237,7 +2246,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="58"/>
@@ -2250,7 +2259,7 @@
       <c r="D17" s="64"/>
       <c r="E17" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="17"/>
@@ -2263,7 +2272,7 @@
       <c r="D18" s="64"/>
       <c r="E18" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="69"/>
@@ -2276,7 +2285,7 @@
       <c r="D19" s="64"/>
       <c r="E19" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="69"/>
@@ -2289,7 +2298,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="69"/>
@@ -2302,7 +2311,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="98">
         <f>E20+C21-D21</f>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="2"/>
@@ -2315,7 +2324,7 @@
       <c r="D22" s="64"/>
       <c r="E22" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="2"/>
@@ -2328,7 +2337,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="98">
         <f>E22+C23-D23</f>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="2"/>
@@ -2341,7 +2350,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="2"/>
@@ -2354,7 +2363,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="2"/>
@@ -2367,7 +2376,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="2"/>
@@ -2380,7 +2389,7 @@
       <c r="D27" s="64"/>
       <c r="E27" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="2"/>
@@ -2393,7 +2402,7 @@
       <c r="D28" s="64"/>
       <c r="E28" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="2"/>
@@ -2406,7 +2415,7 @@
       <c r="D29" s="64"/>
       <c r="E29" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="2"/>
@@ -2419,7 +2428,7 @@
       <c r="D30" s="64"/>
       <c r="E30" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="2"/>
@@ -2432,7 +2441,7 @@
       <c r="D31" s="64"/>
       <c r="E31" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F31" s="106" t="s">
         <v>32</v>
@@ -2447,7 +2456,7 @@
       <c r="D32" s="64"/>
       <c r="E32" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="2"/>
@@ -2460,7 +2469,7 @@
       <c r="D33" s="68"/>
       <c r="E33" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="2"/>
@@ -2473,7 +2482,7 @@
       <c r="D34" s="64"/>
       <c r="E34" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F34" s="56"/>
       <c r="G34" s="2"/>
@@ -2486,7 +2495,7 @@
       <c r="D35" s="64"/>
       <c r="E35" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="2"/>
@@ -2499,7 +2508,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="98">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F36" s="56"/>
       <c r="G36" s="2"/>
@@ -2512,7 +2521,7 @@
       <c r="D37" s="64"/>
       <c r="E37" s="97">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="2"/>
@@ -2525,7 +2534,7 @@
       <c r="D38" s="64"/>
       <c r="E38" s="97">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="2"/>
@@ -2538,7 +2547,7 @@
       <c r="D39" s="64"/>
       <c r="E39" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="2"/>
@@ -2551,7 +2560,7 @@
       <c r="D40" s="64"/>
       <c r="E40" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="2"/>
@@ -2564,7 +2573,7 @@
       <c r="D41" s="64"/>
       <c r="E41" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="2"/>
@@ -2577,7 +2586,7 @@
       <c r="D42" s="64"/>
       <c r="E42" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F42" s="56"/>
       <c r="G42" s="2"/>
@@ -2590,7 +2599,7 @@
       <c r="D43" s="64"/>
       <c r="E43" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F43" s="56"/>
       <c r="G43" s="2"/>
@@ -2603,7 +2612,7 @@
       <c r="D44" s="64"/>
       <c r="E44" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F44" s="56"/>
       <c r="G44" s="2"/>
@@ -2616,7 +2625,7 @@
       <c r="D45" s="64"/>
       <c r="E45" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F45" s="56"/>
       <c r="G45" s="2"/>
@@ -2629,7 +2638,7 @@
       <c r="D46" s="64"/>
       <c r="E46" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F46" s="56"/>
       <c r="G46" s="2"/>
@@ -2642,7 +2651,7 @@
       <c r="D47" s="64"/>
       <c r="E47" s="97">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F47" s="56"/>
       <c r="G47" s="2"/>
@@ -2655,7 +2664,7 @@
       <c r="D48" s="64"/>
       <c r="E48" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F48" s="56"/>
       <c r="G48" s="2"/>
@@ -2667,7 +2676,7 @@
       <c r="D49" s="64"/>
       <c r="E49" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F49" s="56"/>
       <c r="G49" s="2"/>
@@ -2679,7 +2688,7 @@
       <c r="D50" s="64"/>
       <c r="E50" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="2"/>
@@ -2691,7 +2700,7 @@
       <c r="D51" s="64"/>
       <c r="E51" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F51" s="56"/>
       <c r="G51" s="2"/>
@@ -2703,7 +2712,7 @@
       <c r="D52" s="64"/>
       <c r="E52" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F52" s="56"/>
       <c r="G52" s="2"/>
@@ -2715,7 +2724,7 @@
       <c r="D53" s="64"/>
       <c r="E53" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F53" s="56"/>
       <c r="G53" s="2"/>
@@ -2727,7 +2736,7 @@
       <c r="D54" s="64"/>
       <c r="E54" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F54" s="56"/>
       <c r="G54" s="2"/>
@@ -2739,7 +2748,7 @@
       <c r="D55" s="64"/>
       <c r="E55" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F55" s="56"/>
       <c r="G55" s="2"/>
@@ -2750,7 +2759,7 @@
       <c r="D56" s="64"/>
       <c r="E56" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="2"/>
@@ -2761,7 +2770,7 @@
       <c r="D57" s="64"/>
       <c r="E57" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F57" s="56"/>
       <c r="G57" s="2"/>
@@ -2772,7 +2781,7 @@
       <c r="D58" s="64"/>
       <c r="E58" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="56"/>
       <c r="G58" s="2"/>
@@ -2783,7 +2792,7 @@
       <c r="D59" s="64"/>
       <c r="E59" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="56"/>
       <c r="G59" s="2"/>
@@ -2794,7 +2803,7 @@
       <c r="D60" s="64"/>
       <c r="E60" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F60" s="56"/>
       <c r="G60" s="2"/>
@@ -2805,7 +2814,7 @@
       <c r="D61" s="64"/>
       <c r="E61" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="56"/>
       <c r="G61" s="2"/>
@@ -2816,7 +2825,7 @@
       <c r="D62" s="64"/>
       <c r="E62" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="56"/>
       <c r="G62" s="2"/>
@@ -2827,7 +2836,7 @@
       <c r="D63" s="64"/>
       <c r="E63" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F63" s="56"/>
       <c r="G63" s="2"/>
@@ -2838,7 +2847,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F64" s="56"/>
       <c r="G64" s="2"/>
@@ -2849,7 +2858,7 @@
       <c r="D65" s="64"/>
       <c r="E65" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F65" s="56"/>
       <c r="G65" s="2"/>
@@ -2860,7 +2869,7 @@
       <c r="D66" s="64"/>
       <c r="E66" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F66" s="56"/>
       <c r="G66" s="2"/>
@@ -2871,7 +2880,7 @@
       <c r="D67" s="64"/>
       <c r="E67" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F67" s="56"/>
       <c r="G67" s="2"/>
@@ -2882,7 +2891,7 @@
       <c r="D68" s="64"/>
       <c r="E68" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="2"/>
@@ -2893,7 +2902,7 @@
       <c r="D69" s="64"/>
       <c r="E69" s="65">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="2"/>
@@ -2904,7 +2913,7 @@
       <c r="D70" s="64"/>
       <c r="E70" s="65">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="2"/>
@@ -2915,7 +2924,7 @@
       <c r="D71" s="64"/>
       <c r="E71" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F71" s="56"/>
       <c r="G71" s="2"/>
@@ -2926,7 +2935,7 @@
       <c r="D72" s="64"/>
       <c r="E72" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="2"/>
@@ -2937,7 +2946,7 @@
       <c r="D73" s="64"/>
       <c r="E73" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F73" s="56"/>
       <c r="G73" s="2"/>
@@ -2948,7 +2957,7 @@
       <c r="D74" s="64"/>
       <c r="E74" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F74" s="56"/>
       <c r="G74" s="2"/>
@@ -2959,7 +2968,7 @@
       <c r="D75" s="64"/>
       <c r="E75" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="2"/>
@@ -2970,7 +2979,7 @@
       <c r="D76" s="64"/>
       <c r="E76" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F76" s="56"/>
       <c r="G76" s="2"/>
@@ -2981,7 +2990,7 @@
       <c r="D77" s="64"/>
       <c r="E77" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F77" s="56"/>
       <c r="G77" s="2"/>
@@ -2992,7 +3001,7 @@
       <c r="D78" s="64"/>
       <c r="E78" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F78" s="56"/>
       <c r="G78" s="2"/>
@@ -3003,7 +3012,7 @@
       <c r="D79" s="64"/>
       <c r="E79" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F79" s="56"/>
       <c r="G79" s="2"/>
@@ -3014,7 +3023,7 @@
       <c r="D80" s="64"/>
       <c r="E80" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F80" s="56"/>
       <c r="G80" s="2"/>
@@ -3025,7 +3034,7 @@
       <c r="D81" s="64"/>
       <c r="E81" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F81" s="56"/>
       <c r="G81" s="2"/>
@@ -3036,7 +3045,7 @@
       <c r="D82" s="64"/>
       <c r="E82" s="65">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F82" s="56"/>
       <c r="G82" s="2"/>
@@ -3045,15 +3054,15 @@
       <c r="B83" s="72"/>
       <c r="C83" s="67">
         <f>SUM(C5:C72)</f>
-        <v>1857000</v>
+        <v>1974000</v>
       </c>
       <c r="D83" s="67">
         <f>SUM(D5:D77)</f>
-        <v>1850000</v>
+        <v>1970000</v>
       </c>
       <c r="E83" s="73">
         <f>E71+C83-D83</f>
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="57"/>
       <c r="G83" s="2"/>
@@ -3082,7 +3091,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3118,7 +3127,7 @@
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
       <c r="A2" s="146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
@@ -3207,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="109">
-        <v>4837900.5699999994</v>
+        <v>5070363.7549999999</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="101"/>
@@ -3247,14 +3256,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>36129.375000000007</v>
+        <v>46077.235000000001</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="127" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="109">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="101"/>
@@ -3295,14 +3304,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7036129.375</v>
+        <v>7046077.2350000003</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="105" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="110">
-        <v>117000</v>
+        <v>351000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="101"/>
@@ -3349,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1495237</v>
+        <v>1552522</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="101"/>
@@ -3389,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>5548</v>
+        <v>6203</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="127" t="s">
@@ -3441,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="109">
-        <v>573443.80500000063</v>
+        <v>61988.480000000447</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="101"/>
@@ -3482,7 +3491,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>30581.375000000007</v>
+        <v>39874.235000000001</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="127"/>
@@ -3608,7 +3617,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7030581.375</v>
+        <v>7039874.2350000003</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3616,7 +3625,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7030581.375</v>
+        <v>7039874.2350000003</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="90">
@@ -3748,7 +3757,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="114">
-        <v>98990</v>
+        <v>99500</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="103"/>
@@ -3795,7 +3804,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="115">
-        <v>183250</v>
+        <v>187030</v>
       </c>
       <c r="G17" s="103"/>
       <c r="H17" s="102"/>
@@ -3841,7 +3850,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="117">
-        <v>292900</v>
+        <v>332230</v>
       </c>
       <c r="G18" s="103"/>
       <c r="H18" s="102"/>
@@ -3880,7 +3889,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="89">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">
